--- a/PEDIDO ALBUNS RECORDARI.xlsx
+++ b/PEDIDO ALBUNS RECORDARI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>cod 109 - marfim escovado</t>
   </si>
@@ -87,40 +87,7 @@
     <t>ALBUM 120 FOTOS 10X15</t>
   </si>
   <si>
-    <t>ALBUM 200 FOTOS 10X15 S/MEMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cada (11, 12, 03 ,04, 05, 06, 07) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cada (01, 02, 03, 04, 05, 06, 07, 08, 09) </t>
-  </si>
-  <si>
-    <t>2 cada (10, 11, 13, 14, 15, 16)</t>
-  </si>
-  <si>
-    <t>2 cada (21, 22, 24, 26, 27)</t>
-  </si>
-  <si>
-    <t>2 cada (02, 01, 03, 04, 05, 06, 07, 08, 09,10)</t>
-  </si>
-  <si>
-    <t>2 cada (01, 03, 04, 05 ,06 ,09, 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cada (02, 04, 05, 06, 07, 11 ,12, 13) </t>
-  </si>
-  <si>
-    <t>2 cada (01, 02, 05 ,06 , 07 ,10, 11)</t>
-  </si>
-  <si>
-    <t>2 cada (01, 02, 03, 04, 05, 06, 07 ,08, 09)</t>
-  </si>
-  <si>
     <t>3 cada (38, 39, 40, 42, 43)</t>
-  </si>
-  <si>
-    <t>2 cada (38, 39, 40, 42, 43)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +463,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C1" sqref="C1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,9 +479,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,12 +489,8 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -538,12 +499,8 @@
       <c r="B3" s="3">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>27</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -556,9 +513,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,12 +523,8 @@
       <c r="B6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3">
-        <v>18</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -586,9 +537,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,12 +547,8 @@
       <c r="B9" s="3">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -616,9 +561,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,12 +571,8 @@
       <c r="B12" s="3">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>18</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -642,12 +581,8 @@
       <c r="B13" s="3">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -656,26 +591,18 @@
       <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -688,9 +615,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,12 +625,8 @@
       <c r="B18" s="3">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
-        <v>28</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -714,12 +635,8 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3">
-        <v>16</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -732,9 +649,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="D21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,12 +659,8 @@
       <c r="B22" s="3">
         <v>30</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -762,9 +673,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,12 +683,8 @@
       <c r="B25" s="3">
         <v>21</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="3">
-        <v>14</v>
-      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -792,9 +697,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,12 +707,8 @@
       <c r="B28" s="3">
         <v>24</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="3">
-        <v>16</v>
-      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -822,9 +721,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,12 +731,8 @@
       <c r="B31" s="3">
         <v>21</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3">
-        <v>14</v>
-      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -854,10 +747,7 @@
         <v>299</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="3">
-        <f>SUM(E3:E32)</f>
-        <v>207</v>
-      </c>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
